--- a/Шаблоны/Расчет_шаблон_V1.xlsx
+++ b/Шаблоны/Расчет_шаблон_V1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Oleg\Python\LOA_BA\Шаблоны\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82458971-5976-4EDC-9B91-16F9009CBE24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CB21B6D-6C21-4284-8146-6F90DEA40C59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="1860" windowWidth="16605" windowHeight="11835" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1515" yWindow="1515" windowWidth="16605" windowHeight="11835" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Сделка" sheetId="7" r:id="rId1"/>
@@ -10687,8 +10687,8 @@
   <sheetPr codeName="Лист1"/>
   <dimension ref="A1:AA109"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:XFD98"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -10879,7 +10879,7 @@
       </c>
       <c r="O3" s="44">
         <f>IF(OR(K3="",L3=""),"",IF(N3="НДС 20%",K3*E3*1.2-(E3-L3)*1.2,
- IF(N3="НДС 10%",K3*L3*1.1,
+ IF(N3="НДС 10%",K3*L3*1.1-(E3-L3)*1.1,
  IF(N3="НДС 0%",K3*L3,""))))</f>
         <v>0</v>
       </c>
@@ -10992,8 +10992,8 @@
         <v>9</v>
       </c>
       <c r="O4" s="44">
-        <f t="shared" ref="O4:O67" si="14">IF(OR(K4="",L4=""),"",IF(N4="НДС 20%",K4*L4*1.2,
- IF(N4="НДС 10%",K4*L4*1.1,
+        <f t="shared" ref="O4:O67" si="14">IF(OR(K4="",L4=""),"",IF(N4="НДС 20%",K4*E4*1.2-(E4-L4)*1.2,
+ IF(N4="НДС 10%",K4*L4*1.1-(E4-L4)*1.1,
  IF(N4="НДС 0%",K4*L4,""))))</f>
         <v>0</v>
       </c>
@@ -11910,7 +11910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:27" s="38" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27" s="38" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="39">
         <v>11</v>
       </c>
@@ -12018,7 +12018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:27" s="38" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:27" s="38" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="39">
         <v>12</v>
       </c>
@@ -12126,7 +12126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:27" s="38" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" s="38" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="39">
         <v>13</v>
       </c>
@@ -12234,7 +12234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:27" s="38" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27" s="38" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="39">
         <v>14</v>
       </c>
@@ -12342,7 +12342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:27" s="38" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:27" s="38" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="39">
         <v>15</v>
       </c>
@@ -12450,7 +12450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:27" s="38" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:27" s="38" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="39">
         <v>16</v>
       </c>
@@ -12558,7 +12558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:27" s="38" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:27" s="38" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="39">
         <v>17</v>
       </c>
@@ -12666,7 +12666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:27" s="38" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:27" s="38" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="39">
         <v>18</v>
       </c>
@@ -12774,7 +12774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:27" s="38" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:27" s="38" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="39">
         <v>19</v>
       </c>
@@ -12882,7 +12882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:27" s="38" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:27" s="38" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="39">
         <v>20</v>
       </c>
@@ -12990,7 +12990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:27" s="38" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:27" s="38" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="39">
         <v>21</v>
       </c>
@@ -13098,7 +13098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:27" s="38" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:27" s="38" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="39">
         <v>22</v>
       </c>
@@ -13206,7 +13206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:27" s="38" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:27" s="38" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="39">
         <v>23</v>
       </c>
@@ -13314,7 +13314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:27" s="38" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:27" s="38" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="39">
         <v>24</v>
       </c>
@@ -13422,7 +13422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:27" s="38" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:27" s="38" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="39">
         <v>25</v>
       </c>
@@ -13530,7 +13530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:27" s="38" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:27" s="38" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="39">
         <v>26</v>
       </c>
@@ -13638,7 +13638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:27" s="38" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:27" s="38" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="39">
         <v>27</v>
       </c>
@@ -13746,7 +13746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:27" s="38" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:27" s="38" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="39">
         <v>28</v>
       </c>
@@ -13854,7 +13854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:27" s="38" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:27" s="38" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="39">
         <v>29</v>
       </c>
@@ -13962,7 +13962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:27" s="38" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:27" s="38" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="39">
         <v>30</v>
       </c>
@@ -14070,7 +14070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:27" s="38" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:27" s="38" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="39">
         <v>31</v>
       </c>
@@ -14178,7 +14178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:27" s="38" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:27" s="38" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="39">
         <v>32</v>
       </c>
@@ -14286,7 +14286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:27" s="38" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:27" s="38" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="39">
         <v>33</v>
       </c>
@@ -14394,7 +14394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:27" s="38" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:27" s="38" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="39">
         <v>34</v>
       </c>
@@ -14502,7 +14502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:27" s="38" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:27" s="38" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="39">
         <v>35</v>
       </c>
@@ -14610,7 +14610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:27" s="38" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:27" s="38" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="39">
         <v>36</v>
       </c>
@@ -14718,7 +14718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:27" s="38" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:27" s="38" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="39">
         <v>37</v>
       </c>
@@ -14826,7 +14826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:27" s="38" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:27" s="38" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="39">
         <v>38</v>
       </c>
@@ -14934,7 +14934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:27" s="38" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:27" s="38" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="39">
         <v>39</v>
       </c>
@@ -15042,7 +15042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:27" s="38" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:27" s="38" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="39">
         <v>40</v>
       </c>
@@ -15150,7 +15150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:27" s="38" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:27" s="38" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="39">
         <v>41</v>
       </c>
@@ -15258,7 +15258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:27" s="38" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:27" s="38" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="39">
         <v>42</v>
       </c>
@@ -15366,7 +15366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:27" s="38" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:27" s="38" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="39">
         <v>43</v>
       </c>
@@ -15474,7 +15474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:27" s="38" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:27" s="38" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="39">
         <v>44</v>
       </c>
@@ -15582,7 +15582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:27" s="38" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:27" s="38" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="39">
         <v>45</v>
       </c>
@@ -15690,7 +15690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:27" s="38" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:27" s="38" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="39">
         <v>46</v>
       </c>
@@ -15798,7 +15798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:27" s="38" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:27" s="38" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="39">
         <v>47</v>
       </c>
@@ -15906,7 +15906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:27" s="38" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:27" s="38" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="39">
         <v>48</v>
       </c>
@@ -16014,7 +16014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:27" s="38" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:27" s="38" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="39">
         <v>49</v>
       </c>
@@ -16122,7 +16122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:27" s="38" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:27" s="38" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="39">
         <v>50</v>
       </c>
@@ -16230,7 +16230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:27" s="38" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:27" s="38" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="39">
         <v>51</v>
       </c>
@@ -16338,7 +16338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:27" s="38" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:27" s="38" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="39">
         <v>52</v>
       </c>
@@ -16446,7 +16446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:27" s="38" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:27" s="38" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="39">
         <v>53</v>
       </c>
@@ -16554,7 +16554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:27" s="38" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:27" s="38" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="39">
         <v>54</v>
       </c>
@@ -16662,7 +16662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:27" s="38" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:27" s="38" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="39">
         <v>55</v>
       </c>
@@ -16770,7 +16770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:27" s="38" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:27" s="38" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="39">
         <v>56</v>
       </c>
@@ -16878,7 +16878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:27" s="38" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:27" s="38" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="39">
         <v>57</v>
       </c>
@@ -16986,7 +16986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:27" s="38" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:27" s="38" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="39">
         <v>58</v>
       </c>
@@ -17094,7 +17094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:27" s="38" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:27" s="38" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="39">
         <v>59</v>
       </c>
@@ -17202,7 +17202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:27" s="38" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:27" s="38" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="39">
         <v>60</v>
       </c>
@@ -17310,7 +17310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:27" s="38" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:27" s="38" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="39">
         <v>61</v>
       </c>
@@ -17418,7 +17418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:27" s="38" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:27" s="38" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="39">
         <v>62</v>
       </c>
@@ -17526,7 +17526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:27" s="38" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:27" s="38" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="39">
         <v>63</v>
       </c>
@@ -17634,7 +17634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:27" s="38" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:27" s="38" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="39">
         <v>64</v>
       </c>
@@ -17742,7 +17742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:27" s="38" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:27" s="38" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="39">
         <v>65</v>
       </c>
@@ -17850,7 +17850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:27" s="38" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:27" s="38" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="39">
         <v>66</v>
       </c>
@@ -17910,8 +17910,8 @@
         <v>9</v>
       </c>
       <c r="O68" s="44">
-        <f t="shared" ref="O68:O98" si="29">IF(OR(K68="",L68=""),"",IF(N68="НДС 20%",K68*L68*1.2,
- IF(N68="НДС 10%",K68*L68*1.1,
+        <f t="shared" ref="O68:O98" si="29">IF(OR(K68="",L68=""),"",IF(N68="НДС 20%",K68*E68*1.2-(E68-L68)*1.2,
+ IF(N68="НДС 10%",K68*L68*1.1-(E68-L68)*1.1,
  IF(N68="НДС 0%",K68*L68,""))))</f>
         <v>0</v>
       </c>
@@ -17964,7 +17964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:27" s="38" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:27" s="38" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="39">
         <v>67</v>
       </c>
@@ -18072,7 +18072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:27" s="38" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:27" s="38" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="39">
         <v>68</v>
       </c>
@@ -18180,7 +18180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:27" s="38" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:27" s="38" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="39">
         <v>69</v>
       </c>
@@ -18288,7 +18288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:27" s="38" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:27" s="38" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="39">
         <v>70</v>
       </c>
@@ -18396,7 +18396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:27" s="38" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:27" s="38" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="39">
         <v>71</v>
       </c>
@@ -18504,7 +18504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:27" s="38" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:27" s="38" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="39">
         <v>72</v>
       </c>
@@ -18612,7 +18612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:27" s="38" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:27" s="38" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="39">
         <v>73</v>
       </c>
@@ -18720,7 +18720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:27" s="38" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:27" s="38" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="39">
         <v>74</v>
       </c>
@@ -18828,7 +18828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:27" s="38" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:27" s="38" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="39">
         <v>75</v>
       </c>
@@ -18936,7 +18936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:27" s="38" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:27" s="38" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="39">
         <v>76</v>
       </c>
@@ -19044,7 +19044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:27" s="38" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:27" s="38" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="39">
         <v>77</v>
       </c>
@@ -19152,7 +19152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:27" s="38" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:27" s="38" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="39">
         <v>78</v>
       </c>
@@ -19260,7 +19260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:27" s="38" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:27" s="38" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="39">
         <v>79</v>
       </c>
@@ -19368,7 +19368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:27" s="38" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:27" s="38" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="39">
         <v>80</v>
       </c>
@@ -19476,7 +19476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:27" s="38" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:27" s="38" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="39">
         <v>81</v>
       </c>
@@ -19584,7 +19584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:27" s="38" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:27" s="38" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="39">
         <v>82</v>
       </c>
@@ -19692,7 +19692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:27" s="38" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:27" s="38" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="39">
         <v>83</v>
       </c>
@@ -19800,7 +19800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:27" s="38" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:27" s="38" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="39">
         <v>84</v>
       </c>
@@ -19908,7 +19908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:27" s="38" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:27" s="38" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="39">
         <v>85</v>
       </c>
@@ -20016,7 +20016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:27" s="38" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:27" s="38" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="39">
         <v>86</v>
       </c>
@@ -20124,7 +20124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:27" s="38" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:27" s="38" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="39">
         <v>87</v>
       </c>
@@ -20232,7 +20232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:27" s="38" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:27" s="38" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="39">
         <v>88</v>
       </c>
@@ -20340,7 +20340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:27" s="38" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:27" s="38" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="39">
         <v>89</v>
       </c>
@@ -20448,7 +20448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:27" s="38" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:27" s="38" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="39">
         <v>90</v>
       </c>
@@ -20556,7 +20556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:27" s="38" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:27" s="38" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="39">
         <v>91</v>
       </c>
@@ -20664,7 +20664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:27" s="38" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:27" s="38" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="39">
         <v>92</v>
       </c>
@@ -20772,7 +20772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:27" s="38" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:27" s="38" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="39">
         <v>93</v>
       </c>
@@ -20880,7 +20880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:27" s="38" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:27" s="38" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="39">
         <v>94</v>
       </c>
@@ -20988,7 +20988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:27" s="38" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:27" s="38" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="39">
         <v>95</v>
       </c>
@@ -21096,7 +21096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:27" s="38" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:27" s="38" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="39">
         <v>96</v>
       </c>
@@ -21493,7 +21493,7 @@
   <sheetPr codeName="Лист2"/>
   <dimension ref="A1:P117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A13" sqref="A13:XFD98"/>
     </sheetView>
   </sheetViews>
